--- a/Data/Search/manual_search_results_2HL_hn-e.xlsx
+++ b/Data/Search/manual_search_results_2HL_hn-e.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\Data\Search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8052D360-A159-45AF-9023-40BEB2BBA20A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2187C41-7CDE-4E1D-82D4-5584BDA532C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="manual_search_results_2HL_hn-e" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>2_5-3_15: 0.010034180208586025</t>
   </si>
@@ -140,12 +150,27 @@
   </si>
   <si>
     <t>2_20-12_600: 0.13581171955146032</t>
+  </si>
+  <si>
+    <t>EPOCHS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20-12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -282,7 +307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,6 +485,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -623,8 +654,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -681,6 +722,1063 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="20"/>
+      <c:rotY val="300"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="40"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v> 5-3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>50</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>150</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>200</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>300</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>400</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>500</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>600</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'manual_search_results_2HL_hn-e'!$H$8:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0034180208585999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7247519248597298E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7219348510244304E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1234775541370301E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.38409165745057E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.409907736561E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6840227017619701E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8402977699069008E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8049068647355799E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0948750596736902E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7286-4C35-ACC4-6C4B3BF78F27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v> 10-6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>50</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>150</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>200</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>300</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>400</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>500</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>600</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'manual_search_results_2HL_hn-e'!$H$9:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.1158857886039796E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1507005928713391E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4650965967895102E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6976595958049903E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0107534561995406E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1985645721234296E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7882246512108004E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1014827512767398E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.34138533277157E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.22483083373867E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7286-4C35-ACC4-6C4B3BF78F27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v> 15-9</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>50</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>150</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>200</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>300</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>400</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>500</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>600</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'manual_search_results_2HL_hn-e'!$H$10:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.4044269328675996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3543730405651103E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2006037512466594E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9853214474321002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2208061982237299E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.33532371055984E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6226232521988798E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4461149582736896E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3889703669611297E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.7866934425386303E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7286-4C35-ACC4-6C4B3BF78F27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v> 20-12</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>50</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>150</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>200</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>300</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>400</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>500</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>600</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'manual_search_results_2HL_hn-e'!$H$11:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.7524617976316704E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8421436866283802E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7107504415615101E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0639339904480899E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4065947283827899E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8021154776763701E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6722525750690501E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.104337060911634</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.4698314316084303E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13581171955145999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7286-4C35-ACC4-6C4B3BF78F27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="584855344"/>
+        <c:axId val="636691232"/>
+        <c:axId val="633234912"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="584855344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>EPOCHS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.75670822005925464"/>
+              <c:y val="0.59176634017513996"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636691232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="636691232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>Average MSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584855344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="633234912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>Hidden Neurons</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.28679447269449099"/>
+              <c:y val="0.8543664678002395"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636691232"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>156590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DA395E-845F-444D-8688-CEE78AD7535F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -979,92 +2077,341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:Q11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f>H8</f>
+        <v>1.0034180208585999E-2</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f>I8</f>
+        <v>8.7247519248597298E-3</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f>J8</f>
+        <v>7.7219348510244304E-3</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>K8</f>
+        <v>8.1234775541370301E-3</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f>L8</f>
+        <v>1.38409165745057E-2</v>
+      </c>
+      <c r="D7">
+        <v>150</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3">
+        <v>30</v>
+      </c>
+      <c r="J7" s="3">
+        <v>50</v>
+      </c>
+      <c r="K7" s="3">
+        <v>100</v>
+      </c>
+      <c r="L7" s="3">
+        <v>150</v>
+      </c>
+      <c r="M7" s="3">
+        <v>200</v>
+      </c>
+      <c r="N7" s="3">
+        <v>300</v>
+      </c>
+      <c r="O7" s="3">
+        <v>400</v>
+      </c>
+      <c r="P7" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f>M8</f>
+        <v>7.409907736561E-3</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8">
+        <v>1.0034180208585999E-2</v>
+      </c>
+      <c r="I8">
+        <v>8.7247519248597298E-3</v>
+      </c>
+      <c r="J8">
+        <v>7.7219348510244304E-3</v>
+      </c>
+      <c r="K8">
+        <v>8.1234775541370301E-3</v>
+      </c>
+      <c r="L8">
+        <v>1.38409165745057E-2</v>
+      </c>
+      <c r="M8">
+        <v>7.409907736561E-3</v>
+      </c>
+      <c r="N8">
+        <v>7.6840227017619701E-3</v>
+      </c>
+      <c r="O8">
+        <v>8.8402977699069008E-3</v>
+      </c>
+      <c r="P8">
+        <v>1.8049068647355799E-2</v>
+      </c>
+      <c r="Q8">
+        <v>2.0948750596736902E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f>N8</f>
+        <v>7.6840227017619701E-3</v>
+      </c>
+      <c r="D9">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9">
+        <v>9.1158857886039796E-3</v>
+      </c>
+      <c r="I9">
+        <v>8.1507005928713391E-3</v>
+      </c>
+      <c r="J9">
+        <v>8.4650965967895102E-3</v>
+      </c>
+      <c r="K9">
+        <v>7.6976595958049903E-3</v>
+      </c>
+      <c r="L9">
+        <v>8.0107534561995406E-3</v>
+      </c>
+      <c r="M9">
+        <v>9.1985645721234296E-3</v>
+      </c>
+      <c r="N9">
+        <v>9.7882246512108004E-3</v>
+      </c>
+      <c r="O9">
+        <v>9.1014827512767398E-3</v>
+      </c>
+      <c r="P9">
+        <v>1.34138533277157E-2</v>
+      </c>
+      <c r="Q9">
+        <v>4.22483083373867E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>O8</f>
+        <v>8.8402977699069008E-3</v>
+      </c>
+      <c r="D10">
+        <v>400</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10">
+        <v>9.4044269328675996E-3</v>
+      </c>
+      <c r="I10">
+        <v>8.3543730405651103E-3</v>
+      </c>
+      <c r="J10">
+        <v>8.2006037512466594E-3</v>
+      </c>
+      <c r="K10">
+        <v>9.9853214474321002E-3</v>
+      </c>
+      <c r="L10">
+        <v>1.2208061982237299E-2</v>
+      </c>
+      <c r="M10">
+        <v>1.33532371055984E-2</v>
+      </c>
+      <c r="N10">
+        <v>4.6226232521988798E-2</v>
+      </c>
+      <c r="O10">
+        <v>6.4461149582736896E-2</v>
+      </c>
+      <c r="P10">
+        <v>3.3889703669611297E-2</v>
+      </c>
+      <c r="Q10">
+        <v>8.7866934425386303E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>P8</f>
+        <v>1.8049068647355799E-2</v>
+      </c>
+      <c r="D11">
+        <v>500</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11">
+        <v>8.7524617976316704E-3</v>
+      </c>
+      <c r="I11">
+        <v>6.8421436866283802E-3</v>
+      </c>
+      <c r="J11">
+        <v>6.7107504415615101E-3</v>
+      </c>
+      <c r="K11">
+        <v>1.0639339904480899E-2</v>
+      </c>
+      <c r="L11">
+        <v>2.4065947283827899E-2</v>
+      </c>
+      <c r="M11">
+        <v>2.8021154776763701E-2</v>
+      </c>
+      <c r="N11">
+        <v>6.6722525750690501E-2</v>
+      </c>
+      <c r="O11">
+        <v>0.104337060911634</v>
+      </c>
+      <c r="P11">
+        <v>9.4698314316084303E-2</v>
+      </c>
+      <c r="Q11">
+        <v>0.13581171955145999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>Q8</f>
+        <v>2.0948750596736902E-2</v>
+      </c>
+      <c r="D12">
+        <v>600</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1147,7 +2494,7 @@
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1188,5 +2535,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>